--- a/Code/Results/Cases/Case_2_123/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_123/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.75487678359247</v>
+        <v>8.284530645224702</v>
       </c>
       <c r="C2">
-        <v>6.439680272546992</v>
+        <v>4.18747655020839</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>17.1636805144113</v>
+        <v>20.94896542863705</v>
       </c>
       <c r="F2">
-        <v>30.64597506620272</v>
+        <v>39.9813710967377</v>
       </c>
       <c r="G2">
-        <v>2.093952860114208</v>
+        <v>3.641128967802692</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.04757620294844</v>
+        <v>21.1248927433636</v>
       </c>
       <c r="J2">
-        <v>4.93365413686564</v>
+        <v>8.156773086012334</v>
       </c>
       <c r="K2">
-        <v>10.60203861349943</v>
+        <v>8.318792822958827</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.70896956290661</v>
+        <v>17.8599260892343</v>
       </c>
       <c r="N2">
-        <v>12.28241373866122</v>
+        <v>18.92386595907361</v>
       </c>
       <c r="O2">
-        <v>14.19460764609096</v>
+        <v>22.466435791962</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.02042792181127</v>
+        <v>8.020266343369824</v>
       </c>
       <c r="C3">
-        <v>6.084833015772208</v>
+        <v>4.012130654381945</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>16.38140852968027</v>
+        <v>20.84374269683949</v>
       </c>
       <c r="F3">
-        <v>29.66027769019426</v>
+        <v>39.9234818999803</v>
       </c>
       <c r="G3">
-        <v>2.098012408360669</v>
+        <v>3.642654102948329</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.21905312461192</v>
+        <v>21.21141868567004</v>
       </c>
       <c r="J3">
-        <v>4.969447167557717</v>
+        <v>8.16891612235993</v>
       </c>
       <c r="K3">
-        <v>10.01846421779838</v>
+        <v>8.152538795431846</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.99134142750131</v>
+        <v>17.74538491153528</v>
       </c>
       <c r="N3">
-        <v>12.46871213587108</v>
+        <v>18.98054857589916</v>
       </c>
       <c r="O3">
-        <v>14.26748883652051</v>
+        <v>22.54634562468903</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.54369850368272</v>
+        <v>7.854691225476741</v>
       </c>
       <c r="C4">
-        <v>5.856177679450685</v>
+        <v>3.899596870400606</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.89185757372094</v>
+        <v>20.78329407065045</v>
       </c>
       <c r="F4">
-        <v>29.06289055552149</v>
+        <v>39.89767810589929</v>
       </c>
       <c r="G4">
-        <v>2.100582886414607</v>
+        <v>3.643640166525413</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.33295708747789</v>
+        <v>21.26814182455064</v>
       </c>
       <c r="J4">
-        <v>4.992064085183717</v>
+        <v>8.176757767591377</v>
       </c>
       <c r="K4">
-        <v>9.641927275071978</v>
+        <v>8.049927299828383</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.53783281472001</v>
+        <v>17.67787037404031</v>
       </c>
       <c r="N4">
-        <v>12.58577656403021</v>
+        <v>19.01700449518246</v>
       </c>
       <c r="O4">
-        <v>14.32366297676456</v>
+        <v>22.59970267391553</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.34295262410174</v>
+        <v>7.786490245680477</v>
       </c>
       <c r="C5">
-        <v>5.760322890636577</v>
+        <v>3.85255093406799</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.690316406864</v>
+        <v>20.75972551920388</v>
       </c>
       <c r="F5">
-        <v>28.82173957414276</v>
+        <v>39.8896199065052</v>
       </c>
       <c r="G5">
-        <v>2.101650374305045</v>
+        <v>3.644054512068789</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.3814627653907</v>
+        <v>21.29216125722008</v>
       </c>
       <c r="J5">
-        <v>5.001444690631491</v>
+        <v>8.180050578712391</v>
       </c>
       <c r="K5">
-        <v>9.483961538572922</v>
+        <v>8.008035116901741</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.35002101858453</v>
+        <v>17.65108819213587</v>
       </c>
       <c r="N5">
-        <v>12.63417218161648</v>
+        <v>19.03227733091112</v>
       </c>
       <c r="O5">
-        <v>14.34930812838423</v>
+        <v>22.62252406627532</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.3092282429351</v>
+        <v>7.77512482896433</v>
       </c>
       <c r="C6">
-        <v>5.744245864035568</v>
+        <v>3.844668467004004</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.65673596139336</v>
+        <v>20.75587681474172</v>
       </c>
       <c r="F6">
-        <v>28.78184442661497</v>
+        <v>39.888430433808</v>
       </c>
       <c r="G6">
-        <v>2.101828849289061</v>
+        <v>3.644124070927485</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.38964109757698</v>
+        <v>21.29620428588305</v>
       </c>
       <c r="J6">
-        <v>5.003012329102952</v>
+        <v>8.180603230773741</v>
       </c>
       <c r="K6">
-        <v>9.457460224122125</v>
+        <v>8.001075965567013</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.31866127147203</v>
+        <v>17.64668580050056</v>
       </c>
       <c r="N6">
-        <v>12.64225047703565</v>
+        <v>19.03483857988144</v>
       </c>
       <c r="O6">
-        <v>14.35372938474277</v>
+        <v>22.62637860849038</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.54101737525895</v>
+        <v>7.853774243797648</v>
       </c>
       <c r="C7">
-        <v>5.854895730039359</v>
+        <v>3.89896714735302</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.88914740619824</v>
+        <v>20.78297188174345</v>
       </c>
       <c r="F7">
-        <v>29.05962861070158</v>
+        <v>39.89755947304224</v>
       </c>
       <c r="G7">
-        <v>2.100597201431349</v>
+        <v>3.643645703804477</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.33360289265053</v>
+        <v>21.26846209744385</v>
       </c>
       <c r="J7">
-        <v>4.992189927110302</v>
+        <v>8.176801781361764</v>
       </c>
       <c r="K7">
-        <v>9.639815122904217</v>
+        <v>8.049362564154237</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.53531173952208</v>
+        <v>17.67750619286143</v>
       </c>
       <c r="N7">
-        <v>12.58642642357233</v>
+        <v>19.01720878097822</v>
       </c>
       <c r="O7">
-        <v>14.32399784148256</v>
+        <v>22.60000608833329</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.506989416401</v>
+        <v>8.194161520489306</v>
       </c>
       <c r="C8">
-        <v>6.319583303290215</v>
+        <v>4.128048903200201</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.89602333120389</v>
+        <v>20.91183340234831</v>
       </c>
       <c r="F8">
-        <v>30.304667649884</v>
+        <v>39.9593945554733</v>
       </c>
       <c r="G8">
-        <v>2.095336676140593</v>
+        <v>3.641644557864814</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.10486445599096</v>
+        <v>21.15398061547436</v>
       </c>
       <c r="J8">
-        <v>4.945864702373899</v>
+        <v>8.16088010199854</v>
       </c>
       <c r="K8">
-        <v>10.40463343921985</v>
+        <v>8.261611921522205</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.46433486237254</v>
+        <v>17.81986226652459</v>
       </c>
       <c r="N8">
-        <v>12.34610493852678</v>
+        <v>18.94306786229877</v>
       </c>
       <c r="O8">
-        <v>14.21729322968025</v>
+        <v>22.49309709307482</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.19692101708959</v>
+        <v>8.831119402212916</v>
       </c>
       <c r="C9">
-        <v>7.144303406120533</v>
+        <v>4.53725552807279</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.78707066715834</v>
+        <v>21.19662217080783</v>
       </c>
       <c r="F9">
-        <v>32.79520524485272</v>
+        <v>40.15750692602039</v>
       </c>
       <c r="G9">
-        <v>2.085619430842106</v>
+        <v>3.638112320169435</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.72848595551736</v>
+        <v>20.95801041163014</v>
       </c>
       <c r="J9">
-        <v>4.859948417672721</v>
+        <v>8.132706170357288</v>
       </c>
       <c r="K9">
-        <v>11.75810466320224</v>
+        <v>8.671231355985059</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.17545460934377</v>
+        <v>18.12029654821953</v>
       </c>
       <c r="N9">
-        <v>11.89521952726465</v>
+        <v>18.81073440319502</v>
       </c>
       <c r="O9">
-        <v>14.10418065107845</v>
+        <v>22.31756306049556</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.31471868377903</v>
+        <v>9.275403844641355</v>
       </c>
       <c r="C10">
-        <v>7.696699741990078</v>
+        <v>4.81198219750892</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.11458537414914</v>
+        <v>21.42411762455432</v>
       </c>
       <c r="F10">
-        <v>34.63899878188559</v>
+        <v>40.34920139870955</v>
       </c>
       <c r="G10">
-        <v>2.078816487424192</v>
+        <v>3.635753715492207</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>12.50172482013804</v>
+        <v>20.83141684524853</v>
       </c>
       <c r="J10">
-        <v>4.799609098175144</v>
+        <v>8.113847558230697</v>
       </c>
       <c r="K10">
-        <v>12.66182184942251</v>
+        <v>8.965101384268278</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.37486536686436</v>
+        <v>18.35251833280422</v>
       </c>
       <c r="N10">
-        <v>11.57512899240264</v>
+        <v>18.72138955247878</v>
       </c>
       <c r="O10">
-        <v>14.08739342017855</v>
+        <v>22.20947407190578</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.79663357612779</v>
+        <v>9.471470656945765</v>
       </c>
       <c r="C11">
-        <v>7.936349819352538</v>
+        <v>4.931092723346225</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.70345717673028</v>
+        <v>21.53127327180644</v>
       </c>
       <c r="F11">
-        <v>35.47804638092174</v>
+        <v>40.44623177401988</v>
       </c>
       <c r="G11">
-        <v>2.075787982925989</v>
+        <v>3.634731565398033</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>12.41078571704728</v>
+        <v>20.77760084846303</v>
       </c>
       <c r="J11">
-        <v>4.772712077497721</v>
+        <v>8.105664238359072</v>
       </c>
       <c r="K11">
-        <v>13.05315344349403</v>
+        <v>9.096655754429843</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.00226577190014</v>
+        <v>18.46032690413069</v>
       </c>
       <c r="N11">
-        <v>11.43164703661038</v>
+        <v>18.68243859226844</v>
       </c>
       <c r="O11">
-        <v>14.09585988489067</v>
+        <v>22.16485122040796</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.97532808478991</v>
+        <v>9.544782517843869</v>
       </c>
       <c r="C12">
-        <v>8.025429868287146</v>
+        <v>4.97533756375404</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>20.92419311468215</v>
+        <v>21.57235043217558</v>
       </c>
       <c r="F12">
-        <v>35.7956257119309</v>
+        <v>40.48436792230598</v>
       </c>
       <c r="G12">
-        <v>2.074650102109292</v>
+        <v>3.634351768177361</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>12.37823603401848</v>
+        <v>20.75776468818457</v>
       </c>
       <c r="J12">
-        <v>4.762601752391887</v>
+        <v>8.102622028164243</v>
       </c>
       <c r="K12">
-        <v>13.1984981537174</v>
+        <v>9.146119712048376</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.23513010894097</v>
+        <v>18.50143447183877</v>
       </c>
       <c r="N12">
-        <v>11.37759523219126</v>
+        <v>18.66793100915534</v>
       </c>
       <c r="O12">
-        <v>14.10152395268636</v>
+        <v>22.14860900426671</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.93701141621539</v>
+        <v>9.529036023740748</v>
       </c>
       <c r="C13">
-        <v>8.006319068316142</v>
+        <v>4.965847115611814</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>20.87675530717515</v>
+        <v>21.56348195852066</v>
       </c>
       <c r="F13">
-        <v>35.72723867000249</v>
+        <v>40.47609301845772</v>
       </c>
       <c r="G13">
-        <v>2.074894776583308</v>
+        <v>3.63443324157249</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>12.38516008078993</v>
+        <v>20.76201261317522</v>
       </c>
       <c r="J13">
-        <v>4.764775928192861</v>
+        <v>8.103274707568287</v>
       </c>
       <c r="K13">
-        <v>13.16732199836998</v>
+        <v>9.135483169055222</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.18518734163526</v>
+        <v>18.49256911311218</v>
       </c>
       <c r="N13">
-        <v>11.38922413021037</v>
+        <v>18.67104471735882</v>
       </c>
       <c r="O13">
-        <v>14.10019249502317</v>
+        <v>22.15207787818225</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.8114108030228</v>
+        <v>9.477521145132723</v>
       </c>
       <c r="C14">
-        <v>7.943711927217493</v>
+        <v>4.934750087851127</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.72166294445424</v>
+        <v>21.5346428624205</v>
       </c>
       <c r="F14">
-        <v>35.50417780216524</v>
+        <v>40.44934146681291</v>
       </c>
       <c r="G14">
-        <v>2.075694192842197</v>
+        <v>3.634700173772136</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>12.40806923370556</v>
+        <v>20.77595803504048</v>
       </c>
       <c r="J14">
-        <v>4.771878817721036</v>
+        <v>8.105412820233843</v>
       </c>
       <c r="K14">
-        <v>13.06516801906142</v>
+        <v>9.100732512543397</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.0215178243423</v>
+        <v>18.46370334938574</v>
       </c>
       <c r="N14">
-        <v>11.42719466120043</v>
+        <v>18.68124019472672</v>
       </c>
       <c r="O14">
-        <v>14.09627578952301</v>
+        <v>22.16350181757183</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.73398324446297</v>
+        <v>9.445843282803953</v>
       </c>
       <c r="C15">
-        <v>7.905145908892513</v>
+        <v>4.915589856410815</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.62636806750127</v>
+        <v>21.51704231589276</v>
       </c>
       <c r="F15">
-        <v>35.36752196417169</v>
+        <v>40.43313612088236</v>
       </c>
       <c r="G15">
-        <v>2.076185006183933</v>
+        <v>3.634864623040424</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>12.42235153696842</v>
+        <v>20.78457070752692</v>
       </c>
       <c r="J15">
-        <v>4.776239176027253</v>
+        <v>8.106729844341976</v>
       </c>
       <c r="K15">
-        <v>13.0022254733806</v>
+        <v>9.079399445992758</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.92065311003833</v>
+        <v>18.44605819114044</v>
       </c>
       <c r="N15">
-        <v>11.45048864536022</v>
+        <v>18.68751674197203</v>
       </c>
       <c r="O15">
-        <v>14.0942010444693</v>
+        <v>22.17058472081809</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.28269171244245</v>
+        <v>9.262463076779587</v>
       </c>
       <c r="C16">
-        <v>7.680804034147296</v>
+        <v>4.804078570792884</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.07579000544131</v>
+        <v>21.41718619476991</v>
       </c>
       <c r="F16">
-        <v>34.58415376648408</v>
+        <v>40.34305629922278</v>
       </c>
       <c r="G16">
-        <v>2.079015691287297</v>
+        <v>3.635821534463816</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>12.50792462787708</v>
+        <v>20.83500978162999</v>
       </c>
       <c r="J16">
-        <v>4.801377617528094</v>
+        <v>8.114390296044386</v>
       </c>
       <c r="K16">
-        <v>12.6358492977322</v>
+        <v>8.956457102653676</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.33319917103074</v>
+        <v>18.34551396291776</v>
       </c>
       <c r="N16">
-        <v>11.58454665566699</v>
+        <v>18.72396905392609</v>
       </c>
       <c r="O16">
-        <v>14.08717629651897</v>
+        <v>22.21248192091668</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.9990489398551</v>
+        <v>9.148368998640837</v>
       </c>
       <c r="C17">
-        <v>7.54019763812217</v>
+        <v>4.734155444183583</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.73410271739503</v>
+        <v>21.3568474879165</v>
       </c>
       <c r="F17">
-        <v>34.10351074418783</v>
+        <v>40.29029850388826</v>
       </c>
       <c r="G17">
-        <v>2.080768782861005</v>
+        <v>3.636421552534849</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>12.56363923188124</v>
+        <v>20.86691888721554</v>
       </c>
       <c r="J17">
-        <v>4.816937521439633</v>
+        <v>8.119190871622825</v>
       </c>
       <c r="K17">
-        <v>12.40602214844596</v>
+        <v>8.880456603849076</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.01925979962864</v>
+        <v>18.28436841607882</v>
       </c>
       <c r="N17">
-        <v>11.66731518681006</v>
+        <v>18.74676407880648</v>
       </c>
       <c r="O17">
-        <v>14.08709213207059</v>
+        <v>22.2393503226018</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.83340179439083</v>
+        <v>9.082179996455372</v>
       </c>
       <c r="C18">
-        <v>7.458228636759247</v>
+        <v>4.693386353579532</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.53616325292548</v>
+        <v>21.32248911522993</v>
       </c>
       <c r="F18">
-        <v>33.82709486531287</v>
+        <v>40.26087998468271</v>
       </c>
       <c r="G18">
-        <v>2.081783380854753</v>
+        <v>3.636771449812615</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12.59682617707601</v>
+        <v>20.88562717954098</v>
       </c>
       <c r="J18">
-        <v>4.825939363387335</v>
+        <v>8.121989281983737</v>
       </c>
       <c r="K18">
-        <v>12.27197000010047</v>
+        <v>8.836545389154548</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.84352713441968</v>
+        <v>18.24940511784273</v>
       </c>
       <c r="N18">
-        <v>11.71512337245397</v>
+        <v>18.76003454002542</v>
       </c>
       <c r="O18">
-        <v>14.08855080441316</v>
+        <v>22.25523224383347</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.77688585367639</v>
+        <v>9.059674606059165</v>
       </c>
       <c r="C19">
-        <v>7.430287094733321</v>
+        <v>4.679488527605315</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.46890561289721</v>
+        <v>21.31091636054783</v>
       </c>
       <c r="F19">
-        <v>33.73351803674193</v>
+        <v>40.25107907087513</v>
       </c>
       <c r="G19">
-        <v>2.082127999306562</v>
+        <v>3.636890741528689</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>12.60825493280146</v>
+        <v>20.89202244990116</v>
       </c>
       <c r="J19">
-        <v>4.828996325154224</v>
+        <v>8.122943180236934</v>
       </c>
       <c r="K19">
-        <v>12.22626263862922</v>
+        <v>8.821645316282959</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.78374147235056</v>
+        <v>18.23760340966759</v>
       </c>
       <c r="N19">
-        <v>11.73134580446394</v>
+        <v>18.7645550943213</v>
       </c>
       <c r="O19">
-        <v>14.08929921014085</v>
+        <v>22.26068303769548</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.02950210885516</v>
+        <v>9.160573494287219</v>
       </c>
       <c r="C20">
-        <v>7.555278844054353</v>
+        <v>4.741656051535542</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.77062263256832</v>
+        <v>21.36323494535721</v>
       </c>
       <c r="F20">
-        <v>34.15467366236126</v>
+        <v>40.2958189264108</v>
       </c>
       <c r="G20">
-        <v>2.080581518770173</v>
+        <v>3.636357184842849</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>12.55758927686611</v>
+        <v>20.86348536274049</v>
       </c>
       <c r="J20">
-        <v>4.815275771519261</v>
+        <v>8.118675989091688</v>
       </c>
       <c r="K20">
-        <v>12.4306803408491</v>
+        <v>8.88856779960158</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.0516476482946</v>
+        <v>18.29085635355798</v>
       </c>
       <c r="N20">
-        <v>11.65848361056023</v>
+        <v>18.74432102353529</v>
       </c>
       <c r="O20">
-        <v>14.0869440866356</v>
+        <v>22.23644583493879</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.84840555366501</v>
+        <v>9.492678160655259</v>
       </c>
       <c r="C21">
-        <v>7.962146442595267</v>
+        <v>4.94390748918451</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.76727921876704</v>
+        <v>21.54310026855943</v>
       </c>
       <c r="F21">
-        <v>35.56970160967622</v>
+        <v>40.45716141659732</v>
       </c>
       <c r="G21">
-        <v>2.07545914677527</v>
+        <v>3.634621572317282</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>12.40128795792373</v>
+        <v>20.77184719228865</v>
       </c>
       <c r="J21">
-        <v>4.769790527399105</v>
+        <v>8.104783269589788</v>
       </c>
       <c r="K21">
-        <v>13.09525027748735</v>
+        <v>9.110949556410617</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.06971902758137</v>
+        <v>18.47217448345843</v>
       </c>
       <c r="N21">
-        <v>11.41603435199915</v>
+        <v>18.67823896842302</v>
       </c>
       <c r="O21">
-        <v>14.09735837103094</v>
+        <v>22.16012852739816</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.36149352631609</v>
+        <v>9.704255990280835</v>
       </c>
       <c r="C22">
-        <v>8.218327268323609</v>
+        <v>5.071073568536592</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.40547078211356</v>
+        <v>21.66355153391635</v>
       </c>
       <c r="F22">
-        <v>36.49356712841076</v>
+        <v>40.57071581288413</v>
       </c>
       <c r="G22">
-        <v>2.0721632467414</v>
+        <v>3.633529601578042</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>12.31020267377229</v>
+        <v>20.7151203427028</v>
       </c>
       <c r="J22">
-        <v>4.740498209750911</v>
+        <v>8.096033576656485</v>
       </c>
       <c r="K22">
-        <v>13.513012073811</v>
+        <v>9.254212728650964</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.73880647008039</v>
+        <v>18.59231094800872</v>
       </c>
       <c r="N22">
-        <v>11.25920937769379</v>
+        <v>18.63646234618552</v>
       </c>
       <c r="O22">
-        <v>14.11855855020439</v>
+        <v>22.11407216059766</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.0896627581137</v>
+        <v>9.591853452062351</v>
       </c>
       <c r="C23">
-        <v>8.082486826378448</v>
+        <v>5.00366643279834</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.06608682243442</v>
+        <v>21.59900853381454</v>
       </c>
       <c r="F23">
-        <v>36.00062282475545</v>
+        <v>40.50937507527047</v>
       </c>
       <c r="G23">
-        <v>2.073917782437731</v>
+        <v>3.634108543104156</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>12.35775823909173</v>
+        <v>20.7451068919606</v>
       </c>
       <c r="J23">
-        <v>4.756093774712761</v>
+        <v>8.100673337686557</v>
       </c>
       <c r="K23">
-        <v>13.29155965882768</v>
+        <v>9.17795513260443</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.38419187363912</v>
+        <v>18.52805203520315</v>
       </c>
       <c r="N23">
-        <v>11.34276913370087</v>
+        <v>18.65863048573331</v>
       </c>
       <c r="O23">
-        <v>14.10587927071608</v>
+        <v>22.13830313656907</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.01574226024719</v>
+        <v>9.155057689386469</v>
       </c>
       <c r="C24">
-        <v>7.54846415856626</v>
+        <v>4.73826679910912</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.75411663995096</v>
+        <v>21.3603461422296</v>
       </c>
       <c r="F24">
-        <v>34.13154316550802</v>
+        <v>40.29332029903351</v>
       </c>
       <c r="G24">
-        <v>2.080666159884538</v>
+        <v>3.636386270089316</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>12.56032087097188</v>
+        <v>20.86503652744483</v>
       </c>
       <c r="J24">
-        <v>4.816026873140157</v>
+        <v>8.118908647554475</v>
       </c>
       <c r="K24">
-        <v>12.41953835685615</v>
+        <v>8.884901401920544</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.03701056984625</v>
+        <v>18.28792256267582</v>
       </c>
       <c r="N24">
-        <v>11.66247566834045</v>
+        <v>18.74542501383764</v>
       </c>
       <c r="O24">
-        <v>14.08700633459852</v>
+        <v>22.23775759917044</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.76156813377306</v>
+        <v>8.662631101649849</v>
       </c>
       <c r="C25">
-        <v>6.930565499405897</v>
+        <v>4.43101178907412</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>18.28569296071422</v>
+        <v>21.11627299543317</v>
       </c>
       <c r="F25">
-        <v>32.11794145587928</v>
+        <v>40.09574941207794</v>
       </c>
       <c r="G25">
-        <v>2.088186980666749</v>
+        <v>3.639026171260545</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.82201507002661</v>
+        <v>21.00797216454887</v>
       </c>
       <c r="J25">
-        <v>4.882685626605079</v>
+        <v>8.140003439838564</v>
       </c>
       <c r="K25">
-        <v>11.40781420944908</v>
+        <v>8.561449483329469</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.72544639453105</v>
+        <v>18.03689262841466</v>
       </c>
       <c r="N25">
-        <v>12.01513931514065</v>
+        <v>18.84514452930096</v>
       </c>
       <c r="O25">
-        <v>14.12370301888252</v>
+        <v>22.36138927948754</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_123/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_123/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.284530645224702</v>
+        <v>11.75487678359245</v>
       </c>
       <c r="C2">
-        <v>4.18747655020839</v>
+        <v>6.439680272547039</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>20.94896542863705</v>
+        <v>17.16368051441129</v>
       </c>
       <c r="F2">
-        <v>39.9813710967377</v>
+        <v>30.64597506620272</v>
       </c>
       <c r="G2">
-        <v>3.641128967802692</v>
+        <v>2.093952860114475</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>21.1248927433636</v>
+        <v>13.0475762029485</v>
       </c>
       <c r="J2">
-        <v>8.156773086012334</v>
+        <v>4.933654136865573</v>
       </c>
       <c r="K2">
-        <v>8.318792822958827</v>
+        <v>10.60203861349944</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.8599260892343</v>
+        <v>14.70896956290661</v>
       </c>
       <c r="N2">
-        <v>18.92386595907361</v>
+        <v>12.28241373866122</v>
       </c>
       <c r="O2">
-        <v>22.466435791962</v>
+        <v>14.19460764609096</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.020266343369824</v>
+        <v>11.02042792181138</v>
       </c>
       <c r="C3">
-        <v>4.012130654381945</v>
+        <v>6.084833015772229</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>20.84374269683949</v>
+        <v>16.38140852968028</v>
       </c>
       <c r="F3">
-        <v>39.9234818999803</v>
+        <v>29.66027769019421</v>
       </c>
       <c r="G3">
-        <v>3.642654102948329</v>
+        <v>2.098012408360668</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>21.21141868567004</v>
+        <v>13.21905312461181</v>
       </c>
       <c r="J3">
-        <v>8.16891612235993</v>
+        <v>4.969447167557649</v>
       </c>
       <c r="K3">
-        <v>8.152538795431846</v>
+        <v>10.01846421779844</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.74538491153528</v>
+        <v>13.99134142750129</v>
       </c>
       <c r="N3">
-        <v>18.98054857589916</v>
+        <v>12.46871213587105</v>
       </c>
       <c r="O3">
-        <v>22.54634562468903</v>
+        <v>14.26748883652038</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.854691225476741</v>
+        <v>10.54369850368277</v>
       </c>
       <c r="C4">
-        <v>3.899596870400606</v>
+        <v>5.856177679450711</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20.78329407065045</v>
+        <v>15.89185757372101</v>
       </c>
       <c r="F4">
-        <v>39.89767810589929</v>
+        <v>29.06289055552145</v>
       </c>
       <c r="G4">
-        <v>3.643640166525413</v>
+        <v>2.100582886414473</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>21.26814182455064</v>
+        <v>13.33295708747767</v>
       </c>
       <c r="J4">
-        <v>8.176757767591377</v>
+        <v>4.992064085183615</v>
       </c>
       <c r="K4">
-        <v>8.049927299828383</v>
+        <v>9.641927275072</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.67787037404031</v>
+        <v>13.53783281472003</v>
       </c>
       <c r="N4">
-        <v>19.01700449518246</v>
+        <v>12.58577656403011</v>
       </c>
       <c r="O4">
-        <v>22.59970267391553</v>
+        <v>14.32366297676435</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.786490245680477</v>
+        <v>10.34295262410179</v>
       </c>
       <c r="C5">
-        <v>3.85255093406799</v>
+        <v>5.76032289063655</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.75972551920388</v>
+        <v>15.690316406864</v>
       </c>
       <c r="F5">
-        <v>39.8896199065052</v>
+        <v>28.82173957414286</v>
       </c>
       <c r="G5">
-        <v>3.644054512068789</v>
+        <v>2.101650374304911</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>21.29216125722008</v>
+        <v>13.38146276539084</v>
       </c>
       <c r="J5">
-        <v>8.180050578712391</v>
+        <v>5.001444690631559</v>
       </c>
       <c r="K5">
-        <v>8.008035116901741</v>
+        <v>9.483961538572922</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.65108819213587</v>
+        <v>13.3500210185845</v>
       </c>
       <c r="N5">
-        <v>19.03227733091112</v>
+        <v>12.63417218161658</v>
       </c>
       <c r="O5">
-        <v>22.62252406627532</v>
+        <v>14.34930812838436</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.77512482896433</v>
+        <v>10.30922824293516</v>
       </c>
       <c r="C6">
-        <v>3.844668467004004</v>
+        <v>5.74424586403558</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20.75587681474172</v>
+        <v>15.65673596139346</v>
       </c>
       <c r="F6">
-        <v>39.888430433808</v>
+        <v>28.78184442661499</v>
       </c>
       <c r="G6">
-        <v>3.644124070927485</v>
+        <v>2.101828849289329</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>21.29620428588305</v>
+        <v>13.38964109757697</v>
       </c>
       <c r="J6">
-        <v>8.180603230773741</v>
+        <v>5.003012329103086</v>
       </c>
       <c r="K6">
-        <v>8.001075965567013</v>
+        <v>9.457460224122173</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.64668580050056</v>
+        <v>13.31866127147206</v>
       </c>
       <c r="N6">
-        <v>19.03483857988144</v>
+        <v>12.64225047703565</v>
       </c>
       <c r="O6">
-        <v>22.62637860849038</v>
+        <v>14.35372938474273</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.853774243797648</v>
+        <v>10.54101737525897</v>
       </c>
       <c r="C7">
-        <v>3.89896714735302</v>
+        <v>5.854895730039296</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20.78297188174345</v>
+        <v>15.8891474061983</v>
       </c>
       <c r="F7">
-        <v>39.89755947304224</v>
+        <v>29.05962861070176</v>
       </c>
       <c r="G7">
-        <v>3.643645703804477</v>
+        <v>2.100597201431483</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>21.26846209744385</v>
+        <v>13.3336028926506</v>
       </c>
       <c r="J7">
-        <v>8.176801781361764</v>
+        <v>4.992189927110234</v>
       </c>
       <c r="K7">
-        <v>8.049362564154237</v>
+        <v>9.639815122904213</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.67750619286143</v>
+        <v>13.5353117395221</v>
       </c>
       <c r="N7">
-        <v>19.01720878097822</v>
+        <v>12.58642642357236</v>
       </c>
       <c r="O7">
-        <v>22.60000608833329</v>
+        <v>14.32399784148258</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.194161520489306</v>
+        <v>11.50698941640104</v>
       </c>
       <c r="C8">
-        <v>4.128048903200201</v>
+        <v>6.319583303290159</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>20.91183340234831</v>
+        <v>16.89602333120391</v>
       </c>
       <c r="F8">
-        <v>39.9593945554733</v>
+        <v>30.30466764988403</v>
       </c>
       <c r="G8">
-        <v>3.641644557864814</v>
+        <v>2.095336676140595</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>21.15398061547436</v>
+        <v>13.10486445599093</v>
       </c>
       <c r="J8">
-        <v>8.16088010199854</v>
+        <v>4.945864702373831</v>
       </c>
       <c r="K8">
-        <v>8.261611921522205</v>
+        <v>10.40463343921987</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.81986226652459</v>
+        <v>14.46433486237253</v>
       </c>
       <c r="N8">
-        <v>18.94306786229877</v>
+        <v>12.34610493852678</v>
       </c>
       <c r="O8">
-        <v>22.49309709307482</v>
+        <v>14.2172932296802</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.831119402212916</v>
+        <v>13.19692101708956</v>
       </c>
       <c r="C9">
-        <v>4.53725552807279</v>
+        <v>7.144303406120716</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>21.19662217080783</v>
+        <v>18.7870706671583</v>
       </c>
       <c r="F9">
-        <v>40.15750692602039</v>
+        <v>32.7952052448528</v>
       </c>
       <c r="G9">
-        <v>3.638112320169435</v>
+        <v>2.085619430842105</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.95801041163014</v>
+        <v>12.72848595551756</v>
       </c>
       <c r="J9">
-        <v>8.132706170357288</v>
+        <v>4.859948417672753</v>
       </c>
       <c r="K9">
-        <v>8.671231355985059</v>
+        <v>11.75810466320224</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.12029654821953</v>
+        <v>16.17545460934376</v>
       </c>
       <c r="N9">
-        <v>18.81073440319502</v>
+        <v>11.89521952726471</v>
       </c>
       <c r="O9">
-        <v>22.31756306049556</v>
+        <v>14.10418065107855</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.275403844641355</v>
+        <v>14.31471868377908</v>
       </c>
       <c r="C10">
-        <v>4.81198219750892</v>
+        <v>7.696699741990079</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>21.42411762455432</v>
+        <v>20.11458537414915</v>
       </c>
       <c r="F10">
-        <v>40.34920139870955</v>
+        <v>34.6389987818856</v>
       </c>
       <c r="G10">
-        <v>3.635753715492207</v>
+        <v>2.07881648742419</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>20.83141684524853</v>
+        <v>12.50172482013795</v>
       </c>
       <c r="J10">
-        <v>8.113847558230697</v>
+        <v>4.799609098175113</v>
       </c>
       <c r="K10">
-        <v>8.965101384268278</v>
+        <v>12.66182184942255</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.35251833280422</v>
+        <v>17.37486536686435</v>
       </c>
       <c r="N10">
-        <v>18.72138955247878</v>
+        <v>11.57512899240257</v>
       </c>
       <c r="O10">
-        <v>22.20947407190578</v>
+        <v>14.08739342017846</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.471470656945765</v>
+        <v>14.79663357612776</v>
       </c>
       <c r="C11">
-        <v>4.931092723346225</v>
+        <v>7.936349819352538</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>21.53127327180644</v>
+        <v>20.70345717673028</v>
       </c>
       <c r="F11">
-        <v>40.44623177401988</v>
+        <v>35.47804638092173</v>
       </c>
       <c r="G11">
-        <v>3.634731565398033</v>
+        <v>2.07578798292599</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>20.77760084846303</v>
+        <v>12.41078571704727</v>
       </c>
       <c r="J11">
-        <v>8.105664238359072</v>
+        <v>4.772712077497753</v>
       </c>
       <c r="K11">
-        <v>9.096655754429843</v>
+        <v>13.05315344349399</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.46032690413069</v>
+        <v>18.00226577190009</v>
       </c>
       <c r="N11">
-        <v>18.68243859226844</v>
+        <v>11.43164703661035</v>
       </c>
       <c r="O11">
-        <v>22.16485122040796</v>
+        <v>14.09585988489065</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.544782517843869</v>
+        <v>14.97532808479</v>
       </c>
       <c r="C12">
-        <v>4.97533756375404</v>
+        <v>8.025429868287199</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.57235043217558</v>
+        <v>20.92419311468216</v>
       </c>
       <c r="F12">
-        <v>40.48436792230598</v>
+        <v>35.79562571193088</v>
       </c>
       <c r="G12">
-        <v>3.634351768177361</v>
+        <v>2.074650102109292</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>20.75776468818457</v>
+        <v>12.37823603401836</v>
       </c>
       <c r="J12">
-        <v>8.102622028164243</v>
+        <v>4.762601752391787</v>
       </c>
       <c r="K12">
-        <v>9.146119712048376</v>
+        <v>13.1984981537175</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.50143447183877</v>
+        <v>18.235130108941</v>
       </c>
       <c r="N12">
-        <v>18.66793100915534</v>
+        <v>11.3775952321912</v>
       </c>
       <c r="O12">
-        <v>22.14860900426671</v>
+        <v>14.10152395268619</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.529036023740748</v>
+        <v>14.93701141621541</v>
       </c>
       <c r="C13">
-        <v>4.965847115611814</v>
+        <v>8.006319068316195</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.56348195852066</v>
+        <v>20.87675530717514</v>
       </c>
       <c r="F13">
-        <v>40.47609301845772</v>
+        <v>35.72723867000249</v>
       </c>
       <c r="G13">
-        <v>3.63443324157249</v>
+        <v>2.074894776583443</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>20.76201261317522</v>
+        <v>12.38516008078994</v>
       </c>
       <c r="J13">
-        <v>8.103274707568287</v>
+        <v>4.764775928192793</v>
       </c>
       <c r="K13">
-        <v>9.135483169055222</v>
+        <v>13.16732199836999</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.49256911311218</v>
+        <v>18.18518734163528</v>
       </c>
       <c r="N13">
-        <v>18.67104471735882</v>
+        <v>11.38922413021037</v>
       </c>
       <c r="O13">
-        <v>22.15207787818225</v>
+        <v>14.10019249502313</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.477521145132723</v>
+        <v>14.8114108030228</v>
       </c>
       <c r="C14">
-        <v>4.934750087851127</v>
+        <v>7.943711927217463</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>21.5346428624205</v>
+        <v>20.72166294445424</v>
       </c>
       <c r="F14">
-        <v>40.44934146681291</v>
+        <v>35.50417780216524</v>
       </c>
       <c r="G14">
-        <v>3.634700173772136</v>
+        <v>2.075694192841929</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>20.77595803504048</v>
+        <v>12.40806923370555</v>
       </c>
       <c r="J14">
-        <v>8.105412820233843</v>
+        <v>4.771878817721002</v>
       </c>
       <c r="K14">
-        <v>9.100732512543397</v>
+        <v>13.06516801906141</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.46370334938574</v>
+        <v>18.02151782434228</v>
       </c>
       <c r="N14">
-        <v>18.68124019472672</v>
+        <v>11.42719466120043</v>
       </c>
       <c r="O14">
-        <v>22.16350181757183</v>
+        <v>14.09627578952299</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.445843282803953</v>
+        <v>14.73398324446298</v>
       </c>
       <c r="C15">
-        <v>4.915589856410815</v>
+        <v>7.9051459088925</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>21.51704231589276</v>
+        <v>20.62636806750128</v>
       </c>
       <c r="F15">
-        <v>40.43313612088236</v>
+        <v>35.36752196417179</v>
       </c>
       <c r="G15">
-        <v>3.634864623040424</v>
+        <v>2.076185006183931</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>20.78457070752692</v>
+        <v>12.42235153696848</v>
       </c>
       <c r="J15">
-        <v>8.106729844341976</v>
+        <v>4.776239176027219</v>
       </c>
       <c r="K15">
-        <v>9.079399445992758</v>
+        <v>13.00222547338061</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.44605819114044</v>
+        <v>17.92065311003829</v>
       </c>
       <c r="N15">
-        <v>18.68751674197203</v>
+        <v>11.45048864536028</v>
       </c>
       <c r="O15">
-        <v>22.17058472081809</v>
+        <v>14.09420104446938</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.262463076779587</v>
+        <v>14.28269171244242</v>
       </c>
       <c r="C16">
-        <v>4.804078570792884</v>
+        <v>7.680804034147336</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>21.41718619476991</v>
+        <v>20.07579000544128</v>
       </c>
       <c r="F16">
-        <v>40.34305629922278</v>
+        <v>34.58415376648408</v>
       </c>
       <c r="G16">
-        <v>3.635821534463816</v>
+        <v>2.079015691287297</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>20.83500978162999</v>
+        <v>12.50792462787714</v>
       </c>
       <c r="J16">
-        <v>8.114390296044386</v>
+        <v>4.801377617528094</v>
       </c>
       <c r="K16">
-        <v>8.956457102653676</v>
+        <v>12.63584929773215</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.34551396291776</v>
+        <v>17.33319917103073</v>
       </c>
       <c r="N16">
-        <v>18.72396905392609</v>
+        <v>11.58454665566699</v>
       </c>
       <c r="O16">
-        <v>22.21248192091668</v>
+        <v>14.087176296519</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.148368998640837</v>
+        <v>13.99904893985509</v>
       </c>
       <c r="C17">
-        <v>4.734155444183583</v>
+        <v>7.540197638122126</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>21.3568474879165</v>
+        <v>19.73410271739506</v>
       </c>
       <c r="F17">
-        <v>40.29029850388826</v>
+        <v>34.10351074418792</v>
       </c>
       <c r="G17">
-        <v>3.636421552534849</v>
+        <v>2.080768782860603</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20.86691888721554</v>
+        <v>12.56363923188125</v>
       </c>
       <c r="J17">
-        <v>8.119190871622825</v>
+        <v>4.816937521439633</v>
       </c>
       <c r="K17">
-        <v>8.880456603849076</v>
+        <v>12.40602214844595</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.28436841607882</v>
+        <v>17.01925979962864</v>
       </c>
       <c r="N17">
-        <v>18.74676407880648</v>
+        <v>11.66731518681005</v>
       </c>
       <c r="O17">
-        <v>22.2393503226018</v>
+        <v>14.0870921320706</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.082179996455372</v>
+        <v>13.83340179439088</v>
       </c>
       <c r="C18">
-        <v>4.693386353579532</v>
+        <v>7.458228636759161</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>21.32248911522993</v>
+        <v>19.53616325292549</v>
       </c>
       <c r="F18">
-        <v>40.26087998468271</v>
+        <v>33.82709486531296</v>
       </c>
       <c r="G18">
-        <v>3.636771449812615</v>
+        <v>2.081783380854752</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.88562717954098</v>
+        <v>12.59682617707599</v>
       </c>
       <c r="J18">
-        <v>8.121989281983737</v>
+        <v>4.825939363387302</v>
       </c>
       <c r="K18">
-        <v>8.836545389154548</v>
+        <v>12.27197000010048</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.24940511784273</v>
+        <v>16.84352713441971</v>
       </c>
       <c r="N18">
-        <v>18.76003454002542</v>
+        <v>11.71512337245397</v>
       </c>
       <c r="O18">
-        <v>22.25523224383347</v>
+        <v>14.08855080441316</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.059674606059165</v>
+        <v>13.77688585367635</v>
       </c>
       <c r="C19">
-        <v>4.679488527605315</v>
+        <v>7.43028709473335</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>21.31091636054783</v>
+        <v>19.46890561289721</v>
       </c>
       <c r="F19">
-        <v>40.25107907087513</v>
+        <v>33.73351803674199</v>
       </c>
       <c r="G19">
-        <v>3.636890741528689</v>
+        <v>2.082127999306697</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.89202244990116</v>
+        <v>12.60825493280155</v>
       </c>
       <c r="J19">
-        <v>8.122943180236934</v>
+        <v>4.828996325154158</v>
       </c>
       <c r="K19">
-        <v>8.821645316282959</v>
+        <v>12.22626263862918</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.23760340966759</v>
+        <v>16.78374147235057</v>
       </c>
       <c r="N19">
-        <v>18.7645550943213</v>
+        <v>11.73134580446394</v>
       </c>
       <c r="O19">
-        <v>22.26068303769548</v>
+        <v>14.08929921014088</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.160573494287219</v>
+        <v>14.02950210885515</v>
       </c>
       <c r="C20">
-        <v>4.741656051535542</v>
+        <v>7.555278844054379</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>21.36323494535721</v>
+        <v>19.77062263256833</v>
       </c>
       <c r="F20">
-        <v>40.2958189264108</v>
+        <v>34.15467366236125</v>
       </c>
       <c r="G20">
-        <v>3.636357184842849</v>
+        <v>2.080581518770306</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>20.86348536274049</v>
+        <v>12.5575892768662</v>
       </c>
       <c r="J20">
-        <v>8.118675989091688</v>
+        <v>4.815275771519296</v>
       </c>
       <c r="K20">
-        <v>8.88856779960158</v>
+        <v>12.43068034084909</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.29085635355798</v>
+        <v>17.0516476482946</v>
       </c>
       <c r="N20">
-        <v>18.74432102353529</v>
+        <v>11.65848361056023</v>
       </c>
       <c r="O20">
-        <v>22.23644583493879</v>
+        <v>14.08694408663561</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.492678160655259</v>
+        <v>14.84840555366492</v>
       </c>
       <c r="C21">
-        <v>4.94390748918451</v>
+        <v>7.962146442595432</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.54310026855943</v>
+        <v>20.76727921876701</v>
       </c>
       <c r="F21">
-        <v>40.45716141659732</v>
+        <v>35.56970160967623</v>
       </c>
       <c r="G21">
-        <v>3.634621572317282</v>
+        <v>2.075459146775537</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>20.77184719228865</v>
+        <v>12.4012879579238</v>
       </c>
       <c r="J21">
-        <v>8.104783269589788</v>
+        <v>4.769790527399072</v>
       </c>
       <c r="K21">
-        <v>9.110949556410617</v>
+        <v>13.09525027748734</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.47217448345843</v>
+        <v>18.06971902758136</v>
       </c>
       <c r="N21">
-        <v>18.67823896842302</v>
+        <v>11.41603435199911</v>
       </c>
       <c r="O21">
-        <v>22.16012852739816</v>
+        <v>14.09735837103091</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.704255990280835</v>
+        <v>15.36149352631607</v>
       </c>
       <c r="C22">
-        <v>5.071073568536592</v>
+        <v>8.218327268323691</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.66355153391635</v>
+        <v>21.40547078211356</v>
       </c>
       <c r="F22">
-        <v>40.57071581288413</v>
+        <v>36.49356712841077</v>
       </c>
       <c r="G22">
-        <v>3.633529601578042</v>
+        <v>2.072163246741266</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>20.7151203427028</v>
+        <v>12.31020267377231</v>
       </c>
       <c r="J22">
-        <v>8.096033576656485</v>
+        <v>4.740498209750911</v>
       </c>
       <c r="K22">
-        <v>9.254212728650964</v>
+        <v>13.51301207381101</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.59231094800872</v>
+        <v>18.73880647008041</v>
       </c>
       <c r="N22">
-        <v>18.63646234618552</v>
+        <v>11.25920937769382</v>
       </c>
       <c r="O22">
-        <v>22.11407216059766</v>
+        <v>14.11855855020443</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.591853452062351</v>
+        <v>15.08966275811367</v>
       </c>
       <c r="C23">
-        <v>5.00366643279834</v>
+        <v>8.082486826378267</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.59900853381454</v>
+        <v>21.06608682243439</v>
       </c>
       <c r="F23">
-        <v>40.50937507527047</v>
+        <v>36.00062282475548</v>
       </c>
       <c r="G23">
-        <v>3.634108543104156</v>
+        <v>2.073917782437731</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>20.7451068919606</v>
+        <v>12.35775823909177</v>
       </c>
       <c r="J23">
-        <v>8.100673337686557</v>
+        <v>4.756093774712728</v>
       </c>
       <c r="K23">
-        <v>9.17795513260443</v>
+        <v>13.29155965882761</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.52805203520315</v>
+        <v>18.38419187363908</v>
       </c>
       <c r="N23">
-        <v>18.65863048573331</v>
+        <v>11.34276913370087</v>
       </c>
       <c r="O23">
-        <v>22.13830313656907</v>
+        <v>14.10587927071616</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.155057689386469</v>
+        <v>14.01574226024724</v>
       </c>
       <c r="C24">
-        <v>4.73826679910912</v>
+        <v>7.548464158566145</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>21.3603461422296</v>
+        <v>19.75411663995095</v>
       </c>
       <c r="F24">
-        <v>40.29332029903351</v>
+        <v>34.13154316550802</v>
       </c>
       <c r="G24">
-        <v>3.636386270089316</v>
+        <v>2.080666159884538</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20.86503652744483</v>
+        <v>12.56032087097186</v>
       </c>
       <c r="J24">
-        <v>8.118908647554475</v>
+        <v>4.816026873140123</v>
       </c>
       <c r="K24">
-        <v>8.884901401920544</v>
+        <v>12.41953835685619</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.28792256267582</v>
+        <v>17.03701056984625</v>
       </c>
       <c r="N24">
-        <v>18.74542501383764</v>
+        <v>11.66247566834045</v>
       </c>
       <c r="O24">
-        <v>22.23775759917044</v>
+        <v>14.08700633459848</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.662631101649849</v>
+        <v>12.76156813377315</v>
       </c>
       <c r="C25">
-        <v>4.43101178907412</v>
+        <v>6.930565499405769</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>21.11627299543317</v>
+        <v>18.28569296071426</v>
       </c>
       <c r="F25">
-        <v>40.09574941207794</v>
+        <v>32.11794145587934</v>
       </c>
       <c r="G25">
-        <v>3.639026171260545</v>
+        <v>2.088186980666614</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>21.00797216454887</v>
+        <v>12.82201507002654</v>
       </c>
       <c r="J25">
-        <v>8.140003439838564</v>
+        <v>4.882685626605011</v>
       </c>
       <c r="K25">
-        <v>8.561449483329469</v>
+        <v>11.40781420944914</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.03689262841466</v>
+        <v>15.72544639453106</v>
       </c>
       <c r="N25">
-        <v>18.84514452930096</v>
+        <v>12.01513931514061</v>
       </c>
       <c r="O25">
-        <v>22.36138927948754</v>
+        <v>14.12370301888246</v>
       </c>
     </row>
   </sheetData>
